--- a/target/classes/m1721.xlsx
+++ b/target/classes/m1721.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
   <si>
     <t>Case ID</t>
   </si>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,18 @@
       <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -197,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +233,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,7 +561,7 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -564,7 +578,7 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -581,7 +595,7 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -598,7 +612,7 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -615,7 +629,7 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -632,7 +646,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -649,7 +663,7 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="13">
         <v>20</v>
       </c>
     </row>
